--- a/natmiOut/OldD4/LR-pairs_lrc2p/Wnt5a-Fzd5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Wnt5a-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Wnt5a</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.93929013296319</v>
+        <v>0.06488733333333334</v>
       </c>
       <c r="H2">
-        <v>4.93929013296319</v>
+        <v>0.194662</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01118619931635934</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01123574233808859</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>9.701505011139769</v>
+        <v>2.676920666666666</v>
       </c>
       <c r="N2">
-        <v>9.701505011139769</v>
+        <v>8.030761999999999</v>
       </c>
       <c r="O2">
-        <v>0.5113332859643277</v>
+        <v>0.1137411923116975</v>
       </c>
       <c r="P2">
-        <v>0.5113332859643277</v>
+        <v>0.1167596329733683</v>
       </c>
       <c r="Q2">
-        <v>47.91854797641561</v>
+        <v>0.1736982436048889</v>
       </c>
       <c r="R2">
-        <v>47.91854797641561</v>
+        <v>1.563284192444</v>
       </c>
       <c r="S2">
-        <v>0.5113332859643277</v>
+        <v>0.001272331647679007</v>
       </c>
       <c r="T2">
-        <v>0.5113332859643277</v>
+        <v>0.001311881151578559</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.93929013296319</v>
+        <v>0.06488733333333334</v>
       </c>
       <c r="H3">
-        <v>4.93929013296319</v>
+        <v>0.194662</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01118619931635934</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01123574233808859</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.89917456165405</v>
+        <v>10.75807</v>
       </c>
       <c r="N3">
-        <v>2.89917456165405</v>
+        <v>32.27421</v>
       </c>
       <c r="O3">
-        <v>0.1528056166020154</v>
+        <v>0.4571057050773153</v>
       </c>
       <c r="P3">
-        <v>0.1528056166020154</v>
+        <v>0.4692362834442626</v>
       </c>
       <c r="Q3">
-        <v>14.31986430611573</v>
+        <v>0.6980624741133332</v>
       </c>
       <c r="R3">
-        <v>14.31986430611573</v>
+        <v>6.282562267019999</v>
       </c>
       <c r="S3">
-        <v>0.1528056166020154</v>
+        <v>0.005113275525639819</v>
       </c>
       <c r="T3">
-        <v>0.1528056166020154</v>
+        <v>0.005272217976462039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.93929013296319</v>
+        <v>0.06488733333333334</v>
       </c>
       <c r="H4">
-        <v>4.93929013296319</v>
+        <v>0.194662</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.01118619931635934</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01123574233808859</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.56533731985262</v>
+        <v>3.564735333333333</v>
       </c>
       <c r="N4">
-        <v>4.56533731985262</v>
+        <v>10.694206</v>
       </c>
       <c r="O4">
-        <v>0.2406233806626218</v>
+        <v>0.1514640505181089</v>
       </c>
       <c r="P4">
-        <v>0.2406233806626218</v>
+        <v>0.1554835727296604</v>
       </c>
       <c r="Q4">
-        <v>22.54952557759666</v>
+        <v>0.2313061698191111</v>
       </c>
       <c r="R4">
-        <v>22.54952557759666</v>
+        <v>2.081755528372</v>
       </c>
       <c r="S4">
-        <v>0.2406233806626218</v>
+        <v>0.001694307058358687</v>
       </c>
       <c r="T4">
-        <v>0.2406233806626218</v>
+        <v>0.001746973360995922</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,743 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.06488733333333334</v>
+      </c>
+      <c r="H5">
+        <v>0.194662</v>
+      </c>
+      <c r="I5">
+        <v>0.01118619931635934</v>
+      </c>
+      <c r="J5">
+        <v>0.01123574233808859</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>4.710187333333333</v>
+      </c>
+      <c r="N5">
+        <v>14.130562</v>
+      </c>
+      <c r="O5">
+        <v>0.2001338067190093</v>
+      </c>
+      <c r="P5">
+        <v>0.2054449170361947</v>
+      </c>
+      <c r="Q5">
+        <v>0.3056314955604444</v>
+      </c>
+      <c r="R5">
+        <v>2.750683460044</v>
+      </c>
+      <c r="S5">
+        <v>0.002238736651900575</v>
+      </c>
+      <c r="T5">
+        <v>0.002308326152488671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.06488733333333334</v>
+      </c>
+      <c r="H6">
+        <v>0.194662</v>
+      </c>
+      <c r="I6">
+        <v>0.01118619931635934</v>
+      </c>
+      <c r="J6">
+        <v>0.01123574233808859</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.8252775</v>
+      </c>
+      <c r="N6">
+        <v>3.650555</v>
+      </c>
+      <c r="O6">
+        <v>0.07755524537386906</v>
+      </c>
+      <c r="P6">
+        <v>0.05307559381651387</v>
+      </c>
+      <c r="Q6">
+        <v>0.1184373895683333</v>
+      </c>
+      <c r="R6">
+        <v>0.71062433741</v>
+      </c>
+      <c r="S6">
+        <v>0.0008675484327812551</v>
+      </c>
+      <c r="T6">
+        <v>0.0005963436965633978</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.659039666666668</v>
+      </c>
+      <c r="H7">
+        <v>16.977119</v>
+      </c>
+      <c r="I7">
+        <v>0.9755855634461335</v>
+      </c>
+      <c r="J7">
+        <v>0.9799063747781704</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>2.676920666666666</v>
+      </c>
+      <c r="N7">
+        <v>8.030761999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.1137411923116975</v>
+      </c>
+      <c r="P7">
+        <v>0.1167596329733683</v>
+      </c>
+      <c r="Q7">
+        <v>15.14880023718644</v>
+      </c>
+      <c r="R7">
+        <v>136.339202134678</v>
+      </c>
+      <c r="S7">
+        <v>0.1109642651884424</v>
+      </c>
+      <c r="T7">
+        <v>0.1144135086673631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.659039666666668</v>
+      </c>
+      <c r="H8">
+        <v>16.977119</v>
+      </c>
+      <c r="I8">
+        <v>0.9755855634461335</v>
+      </c>
+      <c r="J8">
+        <v>0.9799063747781704</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>10.75807</v>
+      </c>
+      <c r="N8">
+        <v>32.27421</v>
+      </c>
+      <c r="O8">
+        <v>0.4571057050773153</v>
+      </c>
+      <c r="P8">
+        <v>0.4692362834442626</v>
+      </c>
+      <c r="Q8">
+        <v>60.88034486677667</v>
+      </c>
+      <c r="R8">
+        <v>547.92310380099</v>
+      </c>
+      <c r="S8">
+        <v>0.4459457268422947</v>
+      </c>
+      <c r="T8">
+        <v>0.4598076254242494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.659039666666668</v>
+      </c>
+      <c r="H9">
+        <v>16.977119</v>
+      </c>
+      <c r="I9">
+        <v>0.9755855634461335</v>
+      </c>
+      <c r="J9">
+        <v>0.9799063747781704</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.564735333333333</v>
+      </c>
+      <c r="N9">
+        <v>10.694206</v>
+      </c>
+      <c r="O9">
+        <v>0.1514640505181089</v>
+      </c>
+      <c r="P9">
+        <v>0.1554835727296604</v>
+      </c>
+      <c r="Q9">
+        <v>20.17297865250156</v>
+      </c>
+      <c r="R9">
+        <v>181.556807872514</v>
+      </c>
+      <c r="S9">
+        <v>0.1477661410665429</v>
+      </c>
+      <c r="T9">
+        <v>0.1523593440910796</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.659039666666668</v>
+      </c>
+      <c r="H10">
+        <v>16.977119</v>
+      </c>
+      <c r="I10">
+        <v>0.9755855634461335</v>
+      </c>
+      <c r="J10">
+        <v>0.9799063747781704</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.710187333333333</v>
+      </c>
+      <c r="N10">
+        <v>14.130562</v>
+      </c>
+      <c r="O10">
+        <v>0.2001338067190093</v>
+      </c>
+      <c r="P10">
+        <v>0.2054449170361947</v>
+      </c>
+      <c r="Q10">
+        <v>26.65513695676422</v>
+      </c>
+      <c r="R10">
+        <v>239.896232610878</v>
+      </c>
+      <c r="S10">
+        <v>0.1952476525925843</v>
+      </c>
+      <c r="T10">
+        <v>0.2013167838695396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.659039666666668</v>
+      </c>
+      <c r="H11">
+        <v>16.977119</v>
+      </c>
+      <c r="I11">
+        <v>0.9755855634461335</v>
+      </c>
+      <c r="J11">
+        <v>0.9799063747781704</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.8252775</v>
+      </c>
+      <c r="N11">
+        <v>3.650555</v>
+      </c>
+      <c r="O11">
+        <v>0.07755524537386906</v>
+      </c>
+      <c r="P11">
+        <v>0.05307559381651387</v>
+      </c>
+      <c r="Q11">
+        <v>10.32931777517417</v>
+      </c>
+      <c r="R11">
+        <v>61.975906651045</v>
+      </c>
+      <c r="S11">
+        <v>0.07566177775626917</v>
+      </c>
+      <c r="T11">
+        <v>0.05200911272593879</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.0767325</v>
+      </c>
+      <c r="H12">
+        <v>0.153465</v>
+      </c>
+      <c r="I12">
+        <v>0.01322823723750722</v>
+      </c>
+      <c r="J12">
+        <v>0.00885788288374087</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>2.676920666666666</v>
+      </c>
+      <c r="N12">
+        <v>8.030761999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.1137411923116975</v>
+      </c>
+      <c r="P12">
+        <v>0.1167596329733683</v>
+      </c>
+      <c r="Q12">
+        <v>0.205406815055</v>
+      </c>
+      <c r="R12">
+        <v>1.23244089033</v>
+      </c>
+      <c r="S12">
+        <v>0.001504595475576066</v>
+      </c>
+      <c r="T12">
+        <v>0.001034243154426665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.0767325</v>
+      </c>
+      <c r="H13">
+        <v>0.153465</v>
+      </c>
+      <c r="I13">
+        <v>0.01322823723750722</v>
+      </c>
+      <c r="J13">
+        <v>0.00885788288374087</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>10.75807</v>
+      </c>
+      <c r="N13">
+        <v>32.27421</v>
+      </c>
+      <c r="O13">
+        <v>0.4571057050773153</v>
+      </c>
+      <c r="P13">
+        <v>0.4692362834442626</v>
+      </c>
+      <c r="Q13">
+        <v>0.8254936062749998</v>
+      </c>
+      <c r="R13">
+        <v>4.952961637649999</v>
+      </c>
+      <c r="S13">
+        <v>0.006046702709380733</v>
+      </c>
+      <c r="T13">
+        <v>0.004156440043551113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>4.93929013296319</v>
-      </c>
-      <c r="H5">
-        <v>4.93929013296319</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.80694121009788</v>
-      </c>
-      <c r="N5">
-        <v>1.80694121009788</v>
-      </c>
-      <c r="O5">
-        <v>0.09523771677103515</v>
-      </c>
-      <c r="P5">
-        <v>0.09523771677103515</v>
-      </c>
-      <c r="Q5">
-        <v>8.925006889881026</v>
-      </c>
-      <c r="R5">
-        <v>8.925006889881026</v>
-      </c>
-      <c r="S5">
-        <v>0.09523771677103515</v>
-      </c>
-      <c r="T5">
-        <v>0.09523771677103515</v>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.0767325</v>
+      </c>
+      <c r="H14">
+        <v>0.153465</v>
+      </c>
+      <c r="I14">
+        <v>0.01322823723750722</v>
+      </c>
+      <c r="J14">
+        <v>0.00885788288374087</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.564735333333333</v>
+      </c>
+      <c r="N14">
+        <v>10.694206</v>
+      </c>
+      <c r="O14">
+        <v>0.1514640505181089</v>
+      </c>
+      <c r="P14">
+        <v>0.1554835727296604</v>
+      </c>
+      <c r="Q14">
+        <v>0.273531053965</v>
+      </c>
+      <c r="R14">
+        <v>1.64118632379</v>
+      </c>
+      <c r="S14">
+        <v>0.002003602393207323</v>
+      </c>
+      <c r="T14">
+        <v>0.001377255277584938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.0767325</v>
+      </c>
+      <c r="H15">
+        <v>0.153465</v>
+      </c>
+      <c r="I15">
+        <v>0.01322823723750722</v>
+      </c>
+      <c r="J15">
+        <v>0.00885788288374087</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.710187333333333</v>
+      </c>
+      <c r="N15">
+        <v>14.130562</v>
+      </c>
+      <c r="O15">
+        <v>0.2001338067190093</v>
+      </c>
+      <c r="P15">
+        <v>0.2054449170361947</v>
+      </c>
+      <c r="Q15">
+        <v>0.3614244495549999</v>
+      </c>
+      <c r="R15">
+        <v>2.16854669733</v>
+      </c>
+      <c r="S15">
+        <v>0.002647417474524471</v>
+      </c>
+      <c r="T15">
+        <v>0.001819807014166472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.0767325</v>
+      </c>
+      <c r="H16">
+        <v>0.153465</v>
+      </c>
+      <c r="I16">
+        <v>0.01322823723750722</v>
+      </c>
+      <c r="J16">
+        <v>0.00885788288374087</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.8252775</v>
+      </c>
+      <c r="N16">
+        <v>3.650555</v>
+      </c>
+      <c r="O16">
+        <v>0.07755524537386906</v>
+      </c>
+      <c r="P16">
+        <v>0.05307559381651387</v>
+      </c>
+      <c r="Q16">
+        <v>0.14005810576875</v>
+      </c>
+      <c r="R16">
+        <v>0.5602324230749999</v>
+      </c>
+      <c r="S16">
+        <v>0.001025919184818624</v>
+      </c>
+      <c r="T16">
+        <v>0.000470137394011681</v>
       </c>
     </row>
   </sheetData>
